--- a/medicine/Mort/La_Mort_de_Sophonisbe_(Pittoni)/La_Mort_de_Sophonisbe_(Pittoni).xlsx
+++ b/medicine/Mort/La_Mort_de_Sophonisbe_(Pittoni)/La_Mort_de_Sophonisbe_(Pittoni).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort de Sophonisbe  est un tableau peint par Giovanni Battista Pittoni  dans les années 1716-1720 conservé au Musée des Beaux-Arts Pouchkine, en Russie. Il met en scène le personnage antique de Sophonisbe lors de sa mort.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau se trouve actuellement au Musée des Beaux-Arts Pouchkine de Moscou en Russie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette œuvre, une peinture à l'huile sur toile de 165 × 214 centimètres représente Sophonisbe au moment de sa mort qu'elle s'inflige pour éviter  le sort des vaincus et être emmenée à Rome pour figurer au triomphe de Scipion.
 </t>
